--- a/www/IndicatorsPerCountry/Estonia_GDPperCapita_TerritorialRef_1991_2012_CCode_233.xlsx
+++ b/www/IndicatorsPerCountry/Estonia_GDPperCapita_TerritorialRef_1991_2012_CCode_233.xlsx
@@ -132,13 +132,13 @@
     <t>Bolt, Jutta and Jan Luiten van Zanden (2015). GDP per Capita. http://hdl.handle.net/10622/8FCYOX, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/Estonia_GDPperCapita_TerritorialRef_1991_2012_CCode_233.xlsx
+++ b/www/IndicatorsPerCountry/Estonia_GDPperCapita_TerritorialRef_1991_2012_CCode_233.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="59">
   <si>
     <t>Country Code</t>
   </si>
@@ -36,73 +36,124 @@
     <t>GDP per Capita</t>
   </si>
   <si>
-    <t>8657</t>
+    <t>1787</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>10819.9729819</t>
-  </si>
-  <si>
-    <t>9798.98047514</t>
-  </si>
-  <si>
-    <t>8587.07938668</t>
-  </si>
-  <si>
-    <t>8053.62638542</t>
-  </si>
-  <si>
-    <t>8050.37682107</t>
-  </si>
-  <si>
-    <t>8700.73487221</t>
-  </si>
-  <si>
-    <t>9333.68118053</t>
-  </si>
-  <si>
-    <t>10535.9465101</t>
-  </si>
-  <si>
-    <t>11352.8912111</t>
-  </si>
-  <si>
-    <t>11413.3735321</t>
-  </si>
-  <si>
-    <t>12610.1069689</t>
-  </si>
-  <si>
-    <t>13498.817501</t>
-  </si>
-  <si>
-    <t>14488.6774696</t>
-  </si>
-  <si>
-    <t>15722.3628879</t>
-  </si>
-  <si>
-    <t>16832.6028949</t>
-  </si>
-  <si>
-    <t>18443.3749222</t>
-  </si>
-  <si>
-    <t>20436.8322095</t>
-  </si>
-  <si>
-    <t>22108.6548472</t>
-  </si>
-  <si>
-    <t>21432.2007326</t>
-  </si>
-  <si>
-    <t>18493.0697184</t>
-  </si>
-  <si>
-    <t>19031.6612065</t>
+    <t>13799</t>
+  </si>
+  <si>
+    <t>15044</t>
+  </si>
+  <si>
+    <t>15478</t>
+  </si>
+  <si>
+    <t>15927</t>
+  </si>
+  <si>
+    <t>16361</t>
+  </si>
+  <si>
+    <t>16660</t>
+  </si>
+  <si>
+    <t>16541</t>
+  </si>
+  <si>
+    <t>16866</t>
+  </si>
+  <si>
+    <t>16898</t>
+  </si>
+  <si>
+    <t>17661</t>
+  </si>
+  <si>
+    <t>18779</t>
+  </si>
+  <si>
+    <t>17247</t>
+  </si>
+  <si>
+    <t>15350.6348703369</t>
+  </si>
+  <si>
+    <t>13214.387635358</t>
+  </si>
+  <si>
+    <t>12207.1842390983</t>
+  </si>
+  <si>
+    <t>12070.0605630271</t>
+  </si>
+  <si>
+    <t>12881.2785038085</t>
+  </si>
+  <si>
+    <t>13547.6609071373</t>
+  </si>
+  <si>
+    <t>15074.7754666063</t>
+  </si>
+  <si>
+    <t>15593.0050531936</t>
+  </si>
+  <si>
+    <t>15335.106288821</t>
+  </si>
+  <si>
+    <t>16806.9746197181</t>
+  </si>
+  <si>
+    <t>17696.610116415</t>
+  </si>
+  <si>
+    <t>18589.1494781568</t>
+  </si>
+  <si>
+    <t>19771.742979817</t>
+  </si>
+  <si>
+    <t>20803.7575925869</t>
+  </si>
+  <si>
+    <t>22518.5412416604</t>
+  </si>
+  <si>
+    <t>24578.8162003913</t>
+  </si>
+  <si>
+    <t>26177.8716752253</t>
+  </si>
+  <si>
+    <t>24429.0222103868</t>
+  </si>
+  <si>
+    <t>20538.0480903784</t>
+  </si>
+  <si>
+    <t>20713.4255637266</t>
+  </si>
+  <si>
+    <t>21997</t>
+  </si>
+  <si>
+    <t>23026</t>
+  </si>
+  <si>
+    <t>23436</t>
+  </si>
+  <si>
+    <t>24146</t>
+  </si>
+  <si>
+    <t>24493</t>
+  </si>
+  <si>
+    <t>24857</t>
   </si>
   <si>
     <t>Description</t>
@@ -217,7 +268,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>1973.0</v>
+        <v>1855.0</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
@@ -234,7 +285,7 @@
         <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>1974.0</v>
+        <v>1856.0</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -251,7 +302,7 @@
         <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>1975.0</v>
+        <v>1857.0</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
@@ -268,7 +319,7 @@
         <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>1976.0</v>
+        <v>1858.0</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
@@ -285,7 +336,7 @@
         <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>1977.0</v>
+        <v>1859.0</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
@@ -302,7 +353,7 @@
         <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>1978.0</v>
+        <v>1860.0</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
@@ -319,7 +370,7 @@
         <v>6</v>
       </c>
       <c r="D8" t="n">
-        <v>1979.0</v>
+        <v>1861.0</v>
       </c>
       <c r="E8" t="s">
         <v>8</v>
@@ -336,7 +387,7 @@
         <v>6</v>
       </c>
       <c r="D9" t="n">
-        <v>1980.0</v>
+        <v>1862.0</v>
       </c>
       <c r="E9" t="s">
         <v>8</v>
@@ -353,7 +404,7 @@
         <v>6</v>
       </c>
       <c r="D10" t="n">
-        <v>1981.0</v>
+        <v>1863.0</v>
       </c>
       <c r="E10" t="s">
         <v>8</v>
@@ -370,7 +421,7 @@
         <v>6</v>
       </c>
       <c r="D11" t="n">
-        <v>1982.0</v>
+        <v>1864.0</v>
       </c>
       <c r="E11" t="s">
         <v>8</v>
@@ -387,7 +438,7 @@
         <v>6</v>
       </c>
       <c r="D12" t="n">
-        <v>1983.0</v>
+        <v>1865.0</v>
       </c>
       <c r="E12" t="s">
         <v>8</v>
@@ -404,7 +455,7 @@
         <v>6</v>
       </c>
       <c r="D13" t="n">
-        <v>1984.0</v>
+        <v>1866.0</v>
       </c>
       <c r="E13" t="s">
         <v>8</v>
@@ -421,7 +472,7 @@
         <v>6</v>
       </c>
       <c r="D14" t="n">
-        <v>1985.0</v>
+        <v>1867.0</v>
       </c>
       <c r="E14" t="s">
         <v>8</v>
@@ -438,7 +489,7 @@
         <v>6</v>
       </c>
       <c r="D15" t="n">
-        <v>1986.0</v>
+        <v>1868.0</v>
       </c>
       <c r="E15" t="s">
         <v>8</v>
@@ -455,7 +506,7 @@
         <v>6</v>
       </c>
       <c r="D16" t="n">
-        <v>1987.0</v>
+        <v>1869.0</v>
       </c>
       <c r="E16" t="s">
         <v>8</v>
@@ -472,7 +523,7 @@
         <v>6</v>
       </c>
       <c r="D17" t="n">
-        <v>1988.0</v>
+        <v>1870.0</v>
       </c>
       <c r="E17" t="s">
         <v>8</v>
@@ -489,7 +540,7 @@
         <v>6</v>
       </c>
       <c r="D18" t="n">
-        <v>1989.0</v>
+        <v>1871.0</v>
       </c>
       <c r="E18" t="s">
         <v>8</v>
@@ -506,10 +557,10 @@
         <v>6</v>
       </c>
       <c r="D19" t="n">
-        <v>1990.0</v>
+        <v>1872.0</v>
       </c>
       <c r="E19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20">
@@ -523,10 +574,10 @@
         <v>6</v>
       </c>
       <c r="D20" t="n">
-        <v>1991.0</v>
+        <v>1873.0</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21">
@@ -540,10 +591,10 @@
         <v>6</v>
       </c>
       <c r="D21" t="n">
-        <v>1992.0</v>
+        <v>1874.0</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22">
@@ -557,10 +608,10 @@
         <v>6</v>
       </c>
       <c r="D22" t="n">
-        <v>1993.0</v>
+        <v>1875.0</v>
       </c>
       <c r="E22" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23">
@@ -574,10 +625,10 @@
         <v>6</v>
       </c>
       <c r="D23" t="n">
-        <v>1994.0</v>
+        <v>1876.0</v>
       </c>
       <c r="E23" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24">
@@ -591,10 +642,10 @@
         <v>6</v>
       </c>
       <c r="D24" t="n">
-        <v>1995.0</v>
+        <v>1877.0</v>
       </c>
       <c r="E24" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25">
@@ -608,10 +659,10 @@
         <v>6</v>
       </c>
       <c r="D25" t="n">
-        <v>1996.0</v>
+        <v>1878.0</v>
       </c>
       <c r="E25" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26">
@@ -625,10 +676,10 @@
         <v>6</v>
       </c>
       <c r="D26" t="n">
-        <v>1997.0</v>
+        <v>1879.0</v>
       </c>
       <c r="E26" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27">
@@ -642,10 +693,10 @@
         <v>6</v>
       </c>
       <c r="D27" t="n">
-        <v>1998.0</v>
+        <v>1880.0</v>
       </c>
       <c r="E27" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28">
@@ -659,10 +710,10 @@
         <v>6</v>
       </c>
       <c r="D28" t="n">
-        <v>1999.0</v>
+        <v>1881.0</v>
       </c>
       <c r="E28" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29">
@@ -676,10 +727,10 @@
         <v>6</v>
       </c>
       <c r="D29" t="n">
-        <v>2000.0</v>
+        <v>1882.0</v>
       </c>
       <c r="E29" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30">
@@ -693,10 +744,10 @@
         <v>6</v>
       </c>
       <c r="D30" t="n">
-        <v>2001.0</v>
+        <v>1883.0</v>
       </c>
       <c r="E30" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31">
@@ -710,10 +761,10 @@
         <v>6</v>
       </c>
       <c r="D31" t="n">
-        <v>2002.0</v>
+        <v>1884.0</v>
       </c>
       <c r="E31" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32">
@@ -727,10 +778,10 @@
         <v>6</v>
       </c>
       <c r="D32" t="n">
-        <v>2003.0</v>
+        <v>1885.0</v>
       </c>
       <c r="E32" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33">
@@ -744,10 +795,10 @@
         <v>6</v>
       </c>
       <c r="D33" t="n">
-        <v>2004.0</v>
+        <v>1886.0</v>
       </c>
       <c r="E33" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34">
@@ -761,10 +812,10 @@
         <v>6</v>
       </c>
       <c r="D34" t="n">
-        <v>2005.0</v>
+        <v>1887.0</v>
       </c>
       <c r="E34" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35">
@@ -778,10 +829,10 @@
         <v>6</v>
       </c>
       <c r="D35" t="n">
-        <v>2006.0</v>
+        <v>1888.0</v>
       </c>
       <c r="E35" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36">
@@ -795,10 +846,10 @@
         <v>6</v>
       </c>
       <c r="D36" t="n">
-        <v>2007.0</v>
+        <v>1889.0</v>
       </c>
       <c r="E36" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37">
@@ -812,10 +863,10 @@
         <v>6</v>
       </c>
       <c r="D37" t="n">
-        <v>2008.0</v>
+        <v>1890.0</v>
       </c>
       <c r="E37" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38">
@@ -829,10 +880,10 @@
         <v>6</v>
       </c>
       <c r="D38" t="n">
-        <v>2009.0</v>
+        <v>1891.0</v>
       </c>
       <c r="E38" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39">
@@ -846,10 +897,2118 @@
         <v>6</v>
       </c>
       <c r="D39" t="n">
+        <v>1892.0</v>
+      </c>
+      <c r="E39" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>233.0</v>
+      </c>
+      <c r="B40" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1893.0</v>
+      </c>
+      <c r="E40" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>233.0</v>
+      </c>
+      <c r="B41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" t="n">
+        <v>1894.0</v>
+      </c>
+      <c r="E41" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>233.0</v>
+      </c>
+      <c r="B42" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" t="n">
+        <v>1895.0</v>
+      </c>
+      <c r="E42" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>233.0</v>
+      </c>
+      <c r="B43" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" t="n">
+        <v>1896.0</v>
+      </c>
+      <c r="E43" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>233.0</v>
+      </c>
+      <c r="B44" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" t="n">
+        <v>1897.0</v>
+      </c>
+      <c r="E44" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>233.0</v>
+      </c>
+      <c r="B45" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" t="s">
+        <v>6</v>
+      </c>
+      <c r="D45" t="n">
+        <v>1898.0</v>
+      </c>
+      <c r="E45" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>233.0</v>
+      </c>
+      <c r="B46" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46" t="n">
+        <v>1899.0</v>
+      </c>
+      <c r="E46" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>233.0</v>
+      </c>
+      <c r="B47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47" t="s">
+        <v>6</v>
+      </c>
+      <c r="D47" t="n">
+        <v>1900.0</v>
+      </c>
+      <c r="E47" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>233.0</v>
+      </c>
+      <c r="B48" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48" t="s">
+        <v>6</v>
+      </c>
+      <c r="D48" t="n">
+        <v>1901.0</v>
+      </c>
+      <c r="E48" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>233.0</v>
+      </c>
+      <c r="B49" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49" t="s">
+        <v>6</v>
+      </c>
+      <c r="D49" t="n">
+        <v>1902.0</v>
+      </c>
+      <c r="E49" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>233.0</v>
+      </c>
+      <c r="B50" t="s">
+        <v>5</v>
+      </c>
+      <c r="C50" t="s">
+        <v>6</v>
+      </c>
+      <c r="D50" t="n">
+        <v>1903.0</v>
+      </c>
+      <c r="E50" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>233.0</v>
+      </c>
+      <c r="B51" t="s">
+        <v>5</v>
+      </c>
+      <c r="C51" t="s">
+        <v>6</v>
+      </c>
+      <c r="D51" t="n">
+        <v>1904.0</v>
+      </c>
+      <c r="E51" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>233.0</v>
+      </c>
+      <c r="B52" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52" t="s">
+        <v>6</v>
+      </c>
+      <c r="D52" t="n">
+        <v>1905.0</v>
+      </c>
+      <c r="E52" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>233.0</v>
+      </c>
+      <c r="B53" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53" t="s">
+        <v>6</v>
+      </c>
+      <c r="D53" t="n">
+        <v>1906.0</v>
+      </c>
+      <c r="E53" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>233.0</v>
+      </c>
+      <c r="B54" t="s">
+        <v>5</v>
+      </c>
+      <c r="C54" t="s">
+        <v>6</v>
+      </c>
+      <c r="D54" t="n">
+        <v>1907.0</v>
+      </c>
+      <c r="E54" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>233.0</v>
+      </c>
+      <c r="B55" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55" t="s">
+        <v>6</v>
+      </c>
+      <c r="D55" t="n">
+        <v>1908.0</v>
+      </c>
+      <c r="E55" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>233.0</v>
+      </c>
+      <c r="B56" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56" t="s">
+        <v>6</v>
+      </c>
+      <c r="D56" t="n">
+        <v>1909.0</v>
+      </c>
+      <c r="E56" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>233.0</v>
+      </c>
+      <c r="B57" t="s">
+        <v>5</v>
+      </c>
+      <c r="C57" t="s">
+        <v>6</v>
+      </c>
+      <c r="D57" t="n">
+        <v>1910.0</v>
+      </c>
+      <c r="E57" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>233.0</v>
+      </c>
+      <c r="B58" t="s">
+        <v>5</v>
+      </c>
+      <c r="C58" t="s">
+        <v>6</v>
+      </c>
+      <c r="D58" t="n">
+        <v>1911.0</v>
+      </c>
+      <c r="E58" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>233.0</v>
+      </c>
+      <c r="B59" t="s">
+        <v>5</v>
+      </c>
+      <c r="C59" t="s">
+        <v>6</v>
+      </c>
+      <c r="D59" t="n">
+        <v>1912.0</v>
+      </c>
+      <c r="E59" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>233.0</v>
+      </c>
+      <c r="B60" t="s">
+        <v>5</v>
+      </c>
+      <c r="C60" t="s">
+        <v>6</v>
+      </c>
+      <c r="D60" t="n">
+        <v>1913.0</v>
+      </c>
+      <c r="E60" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>233.0</v>
+      </c>
+      <c r="B61" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61" t="s">
+        <v>6</v>
+      </c>
+      <c r="D61" t="n">
+        <v>1914.0</v>
+      </c>
+      <c r="E61" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>233.0</v>
+      </c>
+      <c r="B62" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62" t="s">
+        <v>6</v>
+      </c>
+      <c r="D62" t="n">
+        <v>1915.0</v>
+      </c>
+      <c r="E62" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>233.0</v>
+      </c>
+      <c r="B63" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" t="n">
+        <v>1916.0</v>
+      </c>
+      <c r="E63" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>233.0</v>
+      </c>
+      <c r="B64" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" t="s">
+        <v>6</v>
+      </c>
+      <c r="D64" t="n">
+        <v>1917.0</v>
+      </c>
+      <c r="E64" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>233.0</v>
+      </c>
+      <c r="B65" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65" t="s">
+        <v>6</v>
+      </c>
+      <c r="D65" t="n">
+        <v>1918.0</v>
+      </c>
+      <c r="E65" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>233.0</v>
+      </c>
+      <c r="B66" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" t="n">
+        <v>1919.0</v>
+      </c>
+      <c r="E66" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>233.0</v>
+      </c>
+      <c r="B67" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" t="n">
+        <v>1920.0</v>
+      </c>
+      <c r="E67" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>233.0</v>
+      </c>
+      <c r="B68" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68" t="n">
+        <v>1921.0</v>
+      </c>
+      <c r="E68" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>233.0</v>
+      </c>
+      <c r="B69" t="s">
+        <v>5</v>
+      </c>
+      <c r="C69" t="s">
+        <v>6</v>
+      </c>
+      <c r="D69" t="n">
+        <v>1922.0</v>
+      </c>
+      <c r="E69" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>233.0</v>
+      </c>
+      <c r="B70" t="s">
+        <v>5</v>
+      </c>
+      <c r="C70" t="s">
+        <v>6</v>
+      </c>
+      <c r="D70" t="n">
+        <v>1923.0</v>
+      </c>
+      <c r="E70" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>233.0</v>
+      </c>
+      <c r="B71" t="s">
+        <v>5</v>
+      </c>
+      <c r="C71" t="s">
+        <v>6</v>
+      </c>
+      <c r="D71" t="n">
+        <v>1924.0</v>
+      </c>
+      <c r="E71" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>233.0</v>
+      </c>
+      <c r="B72" t="s">
+        <v>5</v>
+      </c>
+      <c r="C72" t="s">
+        <v>6</v>
+      </c>
+      <c r="D72" t="n">
+        <v>1925.0</v>
+      </c>
+      <c r="E72" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>233.0</v>
+      </c>
+      <c r="B73" t="s">
+        <v>5</v>
+      </c>
+      <c r="C73" t="s">
+        <v>6</v>
+      </c>
+      <c r="D73" t="n">
+        <v>1926.0</v>
+      </c>
+      <c r="E73" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>233.0</v>
+      </c>
+      <c r="B74" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74" t="s">
+        <v>6</v>
+      </c>
+      <c r="D74" t="n">
+        <v>1927.0</v>
+      </c>
+      <c r="E74" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>233.0</v>
+      </c>
+      <c r="B75" t="s">
+        <v>5</v>
+      </c>
+      <c r="C75" t="s">
+        <v>6</v>
+      </c>
+      <c r="D75" t="n">
+        <v>1928.0</v>
+      </c>
+      <c r="E75" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>233.0</v>
+      </c>
+      <c r="B76" t="s">
+        <v>5</v>
+      </c>
+      <c r="C76" t="s">
+        <v>6</v>
+      </c>
+      <c r="D76" t="n">
+        <v>1929.0</v>
+      </c>
+      <c r="E76" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>233.0</v>
+      </c>
+      <c r="B77" t="s">
+        <v>5</v>
+      </c>
+      <c r="C77" t="s">
+        <v>6</v>
+      </c>
+      <c r="D77" t="n">
+        <v>1930.0</v>
+      </c>
+      <c r="E77" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>233.0</v>
+      </c>
+      <c r="B78" t="s">
+        <v>5</v>
+      </c>
+      <c r="C78" t="s">
+        <v>6</v>
+      </c>
+      <c r="D78" t="n">
+        <v>1931.0</v>
+      </c>
+      <c r="E78" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>233.0</v>
+      </c>
+      <c r="B79" t="s">
+        <v>5</v>
+      </c>
+      <c r="C79" t="s">
+        <v>6</v>
+      </c>
+      <c r="D79" t="n">
+        <v>1932.0</v>
+      </c>
+      <c r="E79" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>233.0</v>
+      </c>
+      <c r="B80" t="s">
+        <v>5</v>
+      </c>
+      <c r="C80" t="s">
+        <v>6</v>
+      </c>
+      <c r="D80" t="n">
+        <v>1933.0</v>
+      </c>
+      <c r="E80" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>233.0</v>
+      </c>
+      <c r="B81" t="s">
+        <v>5</v>
+      </c>
+      <c r="C81" t="s">
+        <v>6</v>
+      </c>
+      <c r="D81" t="n">
+        <v>1934.0</v>
+      </c>
+      <c r="E81" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>233.0</v>
+      </c>
+      <c r="B82" t="s">
+        <v>5</v>
+      </c>
+      <c r="C82" t="s">
+        <v>6</v>
+      </c>
+      <c r="D82" t="n">
+        <v>1935.0</v>
+      </c>
+      <c r="E82" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>233.0</v>
+      </c>
+      <c r="B83" t="s">
+        <v>5</v>
+      </c>
+      <c r="C83" t="s">
+        <v>6</v>
+      </c>
+      <c r="D83" t="n">
+        <v>1936.0</v>
+      </c>
+      <c r="E83" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>233.0</v>
+      </c>
+      <c r="B84" t="s">
+        <v>5</v>
+      </c>
+      <c r="C84" t="s">
+        <v>6</v>
+      </c>
+      <c r="D84" t="n">
+        <v>1937.0</v>
+      </c>
+      <c r="E84" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>233.0</v>
+      </c>
+      <c r="B85" t="s">
+        <v>5</v>
+      </c>
+      <c r="C85" t="s">
+        <v>6</v>
+      </c>
+      <c r="D85" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="E85" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>233.0</v>
+      </c>
+      <c r="B86" t="s">
+        <v>5</v>
+      </c>
+      <c r="C86" t="s">
+        <v>6</v>
+      </c>
+      <c r="D86" t="n">
+        <v>1939.0</v>
+      </c>
+      <c r="E86" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>233.0</v>
+      </c>
+      <c r="B87" t="s">
+        <v>5</v>
+      </c>
+      <c r="C87" t="s">
+        <v>6</v>
+      </c>
+      <c r="D87" t="n">
+        <v>1940.0</v>
+      </c>
+      <c r="E87" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>233.0</v>
+      </c>
+      <c r="B88" t="s">
+        <v>5</v>
+      </c>
+      <c r="C88" t="s">
+        <v>6</v>
+      </c>
+      <c r="D88" t="n">
+        <v>1941.0</v>
+      </c>
+      <c r="E88" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>233.0</v>
+      </c>
+      <c r="B89" t="s">
+        <v>5</v>
+      </c>
+      <c r="C89" t="s">
+        <v>6</v>
+      </c>
+      <c r="D89" t="n">
+        <v>1942.0</v>
+      </c>
+      <c r="E89" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>233.0</v>
+      </c>
+      <c r="B90" t="s">
+        <v>5</v>
+      </c>
+      <c r="C90" t="s">
+        <v>6</v>
+      </c>
+      <c r="D90" t="n">
+        <v>1943.0</v>
+      </c>
+      <c r="E90" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>233.0</v>
+      </c>
+      <c r="B91" t="s">
+        <v>5</v>
+      </c>
+      <c r="C91" t="s">
+        <v>6</v>
+      </c>
+      <c r="D91" t="n">
+        <v>1944.0</v>
+      </c>
+      <c r="E91" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>233.0</v>
+      </c>
+      <c r="B92" t="s">
+        <v>5</v>
+      </c>
+      <c r="C92" t="s">
+        <v>6</v>
+      </c>
+      <c r="D92" t="n">
+        <v>1945.0</v>
+      </c>
+      <c r="E92" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>233.0</v>
+      </c>
+      <c r="B93" t="s">
+        <v>5</v>
+      </c>
+      <c r="C93" t="s">
+        <v>6</v>
+      </c>
+      <c r="D93" t="n">
+        <v>1946.0</v>
+      </c>
+      <c r="E93" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>233.0</v>
+      </c>
+      <c r="B94" t="s">
+        <v>5</v>
+      </c>
+      <c r="C94" t="s">
+        <v>6</v>
+      </c>
+      <c r="D94" t="n">
+        <v>1947.0</v>
+      </c>
+      <c r="E94" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>233.0</v>
+      </c>
+      <c r="B95" t="s">
+        <v>5</v>
+      </c>
+      <c r="C95" t="s">
+        <v>6</v>
+      </c>
+      <c r="D95" t="n">
+        <v>1948.0</v>
+      </c>
+      <c r="E95" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>233.0</v>
+      </c>
+      <c r="B96" t="s">
+        <v>5</v>
+      </c>
+      <c r="C96" t="s">
+        <v>6</v>
+      </c>
+      <c r="D96" t="n">
+        <v>1949.0</v>
+      </c>
+      <c r="E96" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>233.0</v>
+      </c>
+      <c r="B97" t="s">
+        <v>5</v>
+      </c>
+      <c r="C97" t="s">
+        <v>6</v>
+      </c>
+      <c r="D97" t="n">
+        <v>1950.0</v>
+      </c>
+      <c r="E97" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>233.0</v>
+      </c>
+      <c r="B98" t="s">
+        <v>5</v>
+      </c>
+      <c r="C98" t="s">
+        <v>6</v>
+      </c>
+      <c r="D98" t="n">
+        <v>1951.0</v>
+      </c>
+      <c r="E98" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>233.0</v>
+      </c>
+      <c r="B99" t="s">
+        <v>5</v>
+      </c>
+      <c r="C99" t="s">
+        <v>6</v>
+      </c>
+      <c r="D99" t="n">
+        <v>1952.0</v>
+      </c>
+      <c r="E99" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>233.0</v>
+      </c>
+      <c r="B100" t="s">
+        <v>5</v>
+      </c>
+      <c r="C100" t="s">
+        <v>6</v>
+      </c>
+      <c r="D100" t="n">
+        <v>1953.0</v>
+      </c>
+      <c r="E100" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>233.0</v>
+      </c>
+      <c r="B101" t="s">
+        <v>5</v>
+      </c>
+      <c r="C101" t="s">
+        <v>6</v>
+      </c>
+      <c r="D101" t="n">
+        <v>1954.0</v>
+      </c>
+      <c r="E101" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>233.0</v>
+      </c>
+      <c r="B102" t="s">
+        <v>5</v>
+      </c>
+      <c r="C102" t="s">
+        <v>6</v>
+      </c>
+      <c r="D102" t="n">
+        <v>1955.0</v>
+      </c>
+      <c r="E102" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>233.0</v>
+      </c>
+      <c r="B103" t="s">
+        <v>5</v>
+      </c>
+      <c r="C103" t="s">
+        <v>6</v>
+      </c>
+      <c r="D103" t="n">
+        <v>1956.0</v>
+      </c>
+      <c r="E103" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>233.0</v>
+      </c>
+      <c r="B104" t="s">
+        <v>5</v>
+      </c>
+      <c r="C104" t="s">
+        <v>6</v>
+      </c>
+      <c r="D104" t="n">
+        <v>1957.0</v>
+      </c>
+      <c r="E104" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>233.0</v>
+      </c>
+      <c r="B105" t="s">
+        <v>5</v>
+      </c>
+      <c r="C105" t="s">
+        <v>6</v>
+      </c>
+      <c r="D105" t="n">
+        <v>1958.0</v>
+      </c>
+      <c r="E105" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>233.0</v>
+      </c>
+      <c r="B106" t="s">
+        <v>5</v>
+      </c>
+      <c r="C106" t="s">
+        <v>6</v>
+      </c>
+      <c r="D106" t="n">
+        <v>1959.0</v>
+      </c>
+      <c r="E106" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>233.0</v>
+      </c>
+      <c r="B107" t="s">
+        <v>5</v>
+      </c>
+      <c r="C107" t="s">
+        <v>6</v>
+      </c>
+      <c r="D107" t="n">
+        <v>1960.0</v>
+      </c>
+      <c r="E107" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>233.0</v>
+      </c>
+      <c r="B108" t="s">
+        <v>5</v>
+      </c>
+      <c r="C108" t="s">
+        <v>6</v>
+      </c>
+      <c r="D108" t="n">
+        <v>1961.0</v>
+      </c>
+      <c r="E108" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>233.0</v>
+      </c>
+      <c r="B109" t="s">
+        <v>5</v>
+      </c>
+      <c r="C109" t="s">
+        <v>6</v>
+      </c>
+      <c r="D109" t="n">
+        <v>1962.0</v>
+      </c>
+      <c r="E109" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>233.0</v>
+      </c>
+      <c r="B110" t="s">
+        <v>5</v>
+      </c>
+      <c r="C110" t="s">
+        <v>6</v>
+      </c>
+      <c r="D110" t="n">
+        <v>1963.0</v>
+      </c>
+      <c r="E110" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>233.0</v>
+      </c>
+      <c r="B111" t="s">
+        <v>5</v>
+      </c>
+      <c r="C111" t="s">
+        <v>6</v>
+      </c>
+      <c r="D111" t="n">
+        <v>1964.0</v>
+      </c>
+      <c r="E111" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>233.0</v>
+      </c>
+      <c r="B112" t="s">
+        <v>5</v>
+      </c>
+      <c r="C112" t="s">
+        <v>6</v>
+      </c>
+      <c r="D112" t="n">
+        <v>1965.0</v>
+      </c>
+      <c r="E112" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>233.0</v>
+      </c>
+      <c r="B113" t="s">
+        <v>5</v>
+      </c>
+      <c r="C113" t="s">
+        <v>6</v>
+      </c>
+      <c r="D113" t="n">
+        <v>1966.0</v>
+      </c>
+      <c r="E113" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>233.0</v>
+      </c>
+      <c r="B114" t="s">
+        <v>5</v>
+      </c>
+      <c r="C114" t="s">
+        <v>6</v>
+      </c>
+      <c r="D114" t="n">
+        <v>1967.0</v>
+      </c>
+      <c r="E114" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>233.0</v>
+      </c>
+      <c r="B115" t="s">
+        <v>5</v>
+      </c>
+      <c r="C115" t="s">
+        <v>6</v>
+      </c>
+      <c r="D115" t="n">
+        <v>1968.0</v>
+      </c>
+      <c r="E115" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>233.0</v>
+      </c>
+      <c r="B116" t="s">
+        <v>5</v>
+      </c>
+      <c r="C116" t="s">
+        <v>6</v>
+      </c>
+      <c r="D116" t="n">
+        <v>1969.0</v>
+      </c>
+      <c r="E116" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>233.0</v>
+      </c>
+      <c r="B117" t="s">
+        <v>5</v>
+      </c>
+      <c r="C117" t="s">
+        <v>6</v>
+      </c>
+      <c r="D117" t="n">
+        <v>1970.0</v>
+      </c>
+      <c r="E117" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>233.0</v>
+      </c>
+      <c r="B118" t="s">
+        <v>5</v>
+      </c>
+      <c r="C118" t="s">
+        <v>6</v>
+      </c>
+      <c r="D118" t="n">
+        <v>1971.0</v>
+      </c>
+      <c r="E118" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>233.0</v>
+      </c>
+      <c r="B119" t="s">
+        <v>5</v>
+      </c>
+      <c r="C119" t="s">
+        <v>6</v>
+      </c>
+      <c r="D119" t="n">
+        <v>1972.0</v>
+      </c>
+      <c r="E119" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>233.0</v>
+      </c>
+      <c r="B120" t="s">
+        <v>5</v>
+      </c>
+      <c r="C120" t="s">
+        <v>6</v>
+      </c>
+      <c r="D120" t="n">
+        <v>1973.0</v>
+      </c>
+      <c r="E120" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>233.0</v>
+      </c>
+      <c r="B121" t="s">
+        <v>5</v>
+      </c>
+      <c r="C121" t="s">
+        <v>6</v>
+      </c>
+      <c r="D121" t="n">
+        <v>1974.0</v>
+      </c>
+      <c r="E121" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>233.0</v>
+      </c>
+      <c r="B122" t="s">
+        <v>5</v>
+      </c>
+      <c r="C122" t="s">
+        <v>6</v>
+      </c>
+      <c r="D122" t="n">
+        <v>1975.0</v>
+      </c>
+      <c r="E122" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>233.0</v>
+      </c>
+      <c r="B123" t="s">
+        <v>5</v>
+      </c>
+      <c r="C123" t="s">
+        <v>6</v>
+      </c>
+      <c r="D123" t="n">
+        <v>1976.0</v>
+      </c>
+      <c r="E123" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>233.0</v>
+      </c>
+      <c r="B124" t="s">
+        <v>5</v>
+      </c>
+      <c r="C124" t="s">
+        <v>6</v>
+      </c>
+      <c r="D124" t="n">
+        <v>1977.0</v>
+      </c>
+      <c r="E124" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>233.0</v>
+      </c>
+      <c r="B125" t="s">
+        <v>5</v>
+      </c>
+      <c r="C125" t="s">
+        <v>6</v>
+      </c>
+      <c r="D125" t="n">
+        <v>1978.0</v>
+      </c>
+      <c r="E125" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>233.0</v>
+      </c>
+      <c r="B126" t="s">
+        <v>5</v>
+      </c>
+      <c r="C126" t="s">
+        <v>6</v>
+      </c>
+      <c r="D126" t="n">
+        <v>1979.0</v>
+      </c>
+      <c r="E126" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>233.0</v>
+      </c>
+      <c r="B127" t="s">
+        <v>5</v>
+      </c>
+      <c r="C127" t="s">
+        <v>6</v>
+      </c>
+      <c r="D127" t="n">
+        <v>1980.0</v>
+      </c>
+      <c r="E127" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>233.0</v>
+      </c>
+      <c r="B128" t="s">
+        <v>5</v>
+      </c>
+      <c r="C128" t="s">
+        <v>6</v>
+      </c>
+      <c r="D128" t="n">
+        <v>1981.0</v>
+      </c>
+      <c r="E128" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>233.0</v>
+      </c>
+      <c r="B129" t="s">
+        <v>5</v>
+      </c>
+      <c r="C129" t="s">
+        <v>6</v>
+      </c>
+      <c r="D129" t="n">
+        <v>1982.0</v>
+      </c>
+      <c r="E129" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>233.0</v>
+      </c>
+      <c r="B130" t="s">
+        <v>5</v>
+      </c>
+      <c r="C130" t="s">
+        <v>6</v>
+      </c>
+      <c r="D130" t="n">
+        <v>1983.0</v>
+      </c>
+      <c r="E130" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>233.0</v>
+      </c>
+      <c r="B131" t="s">
+        <v>5</v>
+      </c>
+      <c r="C131" t="s">
+        <v>6</v>
+      </c>
+      <c r="D131" t="n">
+        <v>1984.0</v>
+      </c>
+      <c r="E131" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>233.0</v>
+      </c>
+      <c r="B132" t="s">
+        <v>5</v>
+      </c>
+      <c r="C132" t="s">
+        <v>6</v>
+      </c>
+      <c r="D132" t="n">
+        <v>1985.0</v>
+      </c>
+      <c r="E132" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>233.0</v>
+      </c>
+      <c r="B133" t="s">
+        <v>5</v>
+      </c>
+      <c r="C133" t="s">
+        <v>6</v>
+      </c>
+      <c r="D133" t="n">
+        <v>1986.0</v>
+      </c>
+      <c r="E133" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>233.0</v>
+      </c>
+      <c r="B134" t="s">
+        <v>5</v>
+      </c>
+      <c r="C134" t="s">
+        <v>6</v>
+      </c>
+      <c r="D134" t="n">
+        <v>1987.0</v>
+      </c>
+      <c r="E134" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>233.0</v>
+      </c>
+      <c r="B135" t="s">
+        <v>5</v>
+      </c>
+      <c r="C135" t="s">
+        <v>6</v>
+      </c>
+      <c r="D135" t="n">
+        <v>1988.0</v>
+      </c>
+      <c r="E135" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>233.0</v>
+      </c>
+      <c r="B136" t="s">
+        <v>5</v>
+      </c>
+      <c r="C136" t="s">
+        <v>6</v>
+      </c>
+      <c r="D136" t="n">
+        <v>1989.0</v>
+      </c>
+      <c r="E136" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>233.0</v>
+      </c>
+      <c r="B137" t="s">
+        <v>5</v>
+      </c>
+      <c r="C137" t="s">
+        <v>6</v>
+      </c>
+      <c r="D137" t="n">
+        <v>1990.0</v>
+      </c>
+      <c r="E137" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>233.0</v>
+      </c>
+      <c r="B138" t="s">
+        <v>5</v>
+      </c>
+      <c r="C138" t="s">
+        <v>6</v>
+      </c>
+      <c r="D138" t="n">
+        <v>1991.0</v>
+      </c>
+      <c r="E138" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>233.0</v>
+      </c>
+      <c r="B139" t="s">
+        <v>5</v>
+      </c>
+      <c r="C139" t="s">
+        <v>6</v>
+      </c>
+      <c r="D139" t="n">
+        <v>1992.0</v>
+      </c>
+      <c r="E139" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>233.0</v>
+      </c>
+      <c r="B140" t="s">
+        <v>5</v>
+      </c>
+      <c r="C140" t="s">
+        <v>6</v>
+      </c>
+      <c r="D140" t="n">
+        <v>1993.0</v>
+      </c>
+      <c r="E140" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>233.0</v>
+      </c>
+      <c r="B141" t="s">
+        <v>5</v>
+      </c>
+      <c r="C141" t="s">
+        <v>6</v>
+      </c>
+      <c r="D141" t="n">
+        <v>1994.0</v>
+      </c>
+      <c r="E141" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>233.0</v>
+      </c>
+      <c r="B142" t="s">
+        <v>5</v>
+      </c>
+      <c r="C142" t="s">
+        <v>6</v>
+      </c>
+      <c r="D142" t="n">
+        <v>1995.0</v>
+      </c>
+      <c r="E142" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>233.0</v>
+      </c>
+      <c r="B143" t="s">
+        <v>5</v>
+      </c>
+      <c r="C143" t="s">
+        <v>6</v>
+      </c>
+      <c r="D143" t="n">
+        <v>1996.0</v>
+      </c>
+      <c r="E143" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>233.0</v>
+      </c>
+      <c r="B144" t="s">
+        <v>5</v>
+      </c>
+      <c r="C144" t="s">
+        <v>6</v>
+      </c>
+      <c r="D144" t="n">
+        <v>1997.0</v>
+      </c>
+      <c r="E144" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>233.0</v>
+      </c>
+      <c r="B145" t="s">
+        <v>5</v>
+      </c>
+      <c r="C145" t="s">
+        <v>6</v>
+      </c>
+      <c r="D145" t="n">
+        <v>1998.0</v>
+      </c>
+      <c r="E145" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>233.0</v>
+      </c>
+      <c r="B146" t="s">
+        <v>5</v>
+      </c>
+      <c r="C146" t="s">
+        <v>6</v>
+      </c>
+      <c r="D146" t="n">
+        <v>1999.0</v>
+      </c>
+      <c r="E146" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>233.0</v>
+      </c>
+      <c r="B147" t="s">
+        <v>5</v>
+      </c>
+      <c r="C147" t="s">
+        <v>6</v>
+      </c>
+      <c r="D147" t="n">
+        <v>2000.0</v>
+      </c>
+      <c r="E147" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>233.0</v>
+      </c>
+      <c r="B148" t="s">
+        <v>5</v>
+      </c>
+      <c r="C148" t="s">
+        <v>6</v>
+      </c>
+      <c r="D148" t="n">
+        <v>2001.0</v>
+      </c>
+      <c r="E148" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>233.0</v>
+      </c>
+      <c r="B149" t="s">
+        <v>5</v>
+      </c>
+      <c r="C149" t="s">
+        <v>6</v>
+      </c>
+      <c r="D149" t="n">
+        <v>2002.0</v>
+      </c>
+      <c r="E149" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>233.0</v>
+      </c>
+      <c r="B150" t="s">
+        <v>5</v>
+      </c>
+      <c r="C150" t="s">
+        <v>6</v>
+      </c>
+      <c r="D150" t="n">
+        <v>2003.0</v>
+      </c>
+      <c r="E150" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>233.0</v>
+      </c>
+      <c r="B151" t="s">
+        <v>5</v>
+      </c>
+      <c r="C151" t="s">
+        <v>6</v>
+      </c>
+      <c r="D151" t="n">
+        <v>2004.0</v>
+      </c>
+      <c r="E151" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>233.0</v>
+      </c>
+      <c r="B152" t="s">
+        <v>5</v>
+      </c>
+      <c r="C152" t="s">
+        <v>6</v>
+      </c>
+      <c r="D152" t="n">
+        <v>2005.0</v>
+      </c>
+      <c r="E152" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>233.0</v>
+      </c>
+      <c r="B153" t="s">
+        <v>5</v>
+      </c>
+      <c r="C153" t="s">
+        <v>6</v>
+      </c>
+      <c r="D153" t="n">
+        <v>2006.0</v>
+      </c>
+      <c r="E153" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>233.0</v>
+      </c>
+      <c r="B154" t="s">
+        <v>5</v>
+      </c>
+      <c r="C154" t="s">
+        <v>6</v>
+      </c>
+      <c r="D154" t="n">
+        <v>2007.0</v>
+      </c>
+      <c r="E154" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>233.0</v>
+      </c>
+      <c r="B155" t="s">
+        <v>5</v>
+      </c>
+      <c r="C155" t="s">
+        <v>6</v>
+      </c>
+      <c r="D155" t="n">
+        <v>2008.0</v>
+      </c>
+      <c r="E155" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>233.0</v>
+      </c>
+      <c r="B156" t="s">
+        <v>5</v>
+      </c>
+      <c r="C156" t="s">
+        <v>6</v>
+      </c>
+      <c r="D156" t="n">
+        <v>2009.0</v>
+      </c>
+      <c r="E156" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>233.0</v>
+      </c>
+      <c r="B157" t="s">
+        <v>5</v>
+      </c>
+      <c r="C157" t="s">
+        <v>6</v>
+      </c>
+      <c r="D157" t="n">
         <v>2010.0</v>
       </c>
-      <c r="E39" t="s">
-        <v>29</v>
+      <c r="E157" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>233.0</v>
+      </c>
+      <c r="B158" t="s">
+        <v>5</v>
+      </c>
+      <c r="C158" t="s">
+        <v>6</v>
+      </c>
+      <c r="D158" t="n">
+        <v>2011.0</v>
+      </c>
+      <c r="E158" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>233.0</v>
+      </c>
+      <c r="B159" t="s">
+        <v>5</v>
+      </c>
+      <c r="C159" t="s">
+        <v>6</v>
+      </c>
+      <c r="D159" t="n">
+        <v>2012.0</v>
+      </c>
+      <c r="E159" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>233.0</v>
+      </c>
+      <c r="B160" t="s">
+        <v>5</v>
+      </c>
+      <c r="C160" t="s">
+        <v>6</v>
+      </c>
+      <c r="D160" t="n">
+        <v>2013.0</v>
+      </c>
+      <c r="E160" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>233.0</v>
+      </c>
+      <c r="B161" t="s">
+        <v>5</v>
+      </c>
+      <c r="C161" t="s">
+        <v>6</v>
+      </c>
+      <c r="D161" t="n">
+        <v>2014.0</v>
+      </c>
+      <c r="E161" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>233.0</v>
+      </c>
+      <c r="B162" t="s">
+        <v>5</v>
+      </c>
+      <c r="C162" t="s">
+        <v>6</v>
+      </c>
+      <c r="D162" t="n">
+        <v>2015.0</v>
+      </c>
+      <c r="E162" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>233.0</v>
+      </c>
+      <c r="B163" t="s">
+        <v>5</v>
+      </c>
+      <c r="C163" t="s">
+        <v>6</v>
+      </c>
+      <c r="D163" t="n">
+        <v>2016.0</v>
+      </c>
+      <c r="E163" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -867,50 +3026,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="B1" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
